--- a/Datafor_Catena_2024.xlsx
+++ b/Datafor_Catena_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XinhuGuo\Desktop\Data-set-for-SCI-publish\Data-set-for-SCI-publish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XinhuGuo\Desktop\Data-set-for-SCI-publish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9BBE8A-6A66-4C72-90CC-237236590CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD74A8-ED04-42E1-A91D-62925A59A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig.1" sheetId="3" r:id="rId1"/>
@@ -1970,8 +1970,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="D24:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3288,7 +3288,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4291,8 +4291,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
